--- a/src/test/resources/org/bbreak/excella/reports/tag/BlockRowRepeatParamParserTest_expected.xlsx
+++ b/src/test/resources/org/bbreak/excella/reports/tag/BlockRowRepeatParamParserTest_expected.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15480" windowHeight="9060" firstSheet="15" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15480" windowHeight="9060" firstSheet="16" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,15 @@
     <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
     <sheet name="Sheet21" sheetId="21" r:id="rId21"/>
     <sheet name="Sheet22" sheetId="22" r:id="rId22"/>
+    <sheet name="Sheet23" sheetId="23" r:id="rId23"/>
+    <sheet name="Sheet24" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="217">
   <si>
     <t>$BR[]{BR1,fromCell=1:0,toCell=3:2}</t>
     <phoneticPr fontId="2"/>
@@ -719,6 +721,54 @@
   </si>
   <si>
     <t>$R[]{B}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$BR[]{BR1,fromCell=1:0,toCell=3:3,minRepeatNum=2}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BR1-S-DDD2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BR2-S-DDD2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10E</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>$BR[]{BR1,fromCell=1:0,toCell=3:3,minRepeatNum=3}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BR2-S-DDD2</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -980,19 +1030,19 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2338,7 +2388,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2584,7 +2634,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="C9" s="15"/>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="23" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="15"/>
@@ -2597,7 +2647,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="C10" s="15"/>
-      <c r="D10" s="22"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -2608,25 +2658,25 @@
     </row>
     <row r="11" spans="1:18">
       <c r="C11" s="15"/>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="25"/>
+      <c r="K11" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="R11" t="s">
@@ -2635,7 +2685,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="C12" s="15"/>
-      <c r="D12" s="22"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -2645,7 +2695,7 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2656,10 +2706,10 @@
       <c r="B14" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="23" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2682,7 +2732,7 @@
     </row>
     <row r="20" spans="3:16">
       <c r="C20" s="15"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="23" t="s">
         <v>51</v>
       </c>
       <c r="E20" s="15"/>
@@ -2692,7 +2742,7 @@
     </row>
     <row r="21" spans="3:16">
       <c r="C21" s="15"/>
-      <c r="D21" s="22"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
@@ -2700,58 +2750,58 @@
     </row>
     <row r="22" spans="3:16">
       <c r="C22" s="15"/>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23" t="s">
+      <c r="F22" s="25"/>
+      <c r="G22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="24"/>
-      <c r="K22" s="23" t="s">
+      <c r="J22" s="25"/>
+      <c r="K22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="23" t="s">
+      <c r="L22" s="25"/>
+      <c r="M22" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="22"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
     </row>
     <row r="23" spans="3:16">
       <c r="C23" s="15"/>
-      <c r="D23" s="22"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
     </row>
     <row r="24" spans="3:16">
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="3:16">
-      <c r="D25" s="22"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="3:16">
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="3:16">
-      <c r="D27" s="22"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" spans="3:16">
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="23" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2797,6 +2847,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="D26:D27"/>
@@ -2810,15 +2865,10 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="K22:L22"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2849,7 +2899,7 @@
       <c r="B3" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
@@ -2877,7 +2927,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2885,7 +2935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2936,7 +2986,271 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1">
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.5" customHeight="1">
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
